--- a/biology/Zoologie/Île_Devon/Île_Devon.xlsx
+++ b/biology/Zoologie/Île_Devon/Île_Devon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Ele_Devon</t>
+          <t>Île_Devon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Île Devon est une île située dans le passage du Nord-Ouest et une des composantes de l'archipel arctique canadien. Plus localement, elle se trouve dans la partie méridionale des îles de la Reine-Élisabeth. C'est la 27e île mondiale par la superficie, la 6e du Canada et la 2e des îles de la Reine-Élisabeth. Il s'agit aussi de la plus grande île du monde qui soit entièrement inhabitée. Sa superficie est d'environ 55 000 km2, soit un peu plus petite que la surface de la région Auvergne-Rhône-Alpes.
 La vie animale et végétale est également faible sur l'île en raison des conditions climatiques dues à la latitude et à l'altitude. On y trouve principalement de petits oiseaux, des bœufs musqués et d'autres petits mammifères arctiques.
 L'été la température ne dépasse jamais les 10 °C et descend fréquemment à −50 °C durant le long hiver polaire. Les précipitations y sont également faibles.
-Géologiquement, l'île est principalement composée de gneiss et de schiste. On y retrouve le cratère de Haughton de 20 km de diamètre dû à l'impact d'une météorite de 2 km de diamètre tombée il y a environ 39 millions d'années ainsi que la chaîne de montagne Grinnell[1]. Durant l'été, le site est occupé pour des activités scientifiques liées à la recherche spatiale, la vie sur Mars — le site météoritique étant proche de ceux que l'on peut trouver sur la planète rouge (durant l'été 2007, sept volontaires américains et canadiens ont passé quatre mois sur l'île, enfilant des combinaisons spatiales pour travailler à l'extérieur) — la géologie, la microbiologie, etc.
+Géologiquement, l'île est principalement composée de gneiss et de schiste. On y retrouve le cratère de Haughton de 20 km de diamètre dû à l'impact d'une météorite de 2 km de diamètre tombée il y a environ 39 millions d'années ainsi que la chaîne de montagne Grinnell. Durant l'été, le site est occupé pour des activités scientifiques liées à la recherche spatiale, la vie sur Mars — le site météoritique étant proche de ceux que l'on peut trouver sur la planète rouge (durant l'été 2007, sept volontaires américains et canadiens ont passé quatre mois sur l'île, enfilant des combinaisons spatiales pour travailler à l'extérieur) — la géologie, la microbiologie, etc.
 Bien qu'aujourd'hui inhabitée, un poste avancé, Dundas Harbour, y était implanté entre 1924 et 1951. Principalement destiné à la pêche à la baleine, il était peuplé d'Inuits.
 </t>
         </is>
